--- a/biology/Zoologie/Cymothoe/Cymothoe.xlsx
+++ b/biology/Zoologie/Cymothoe/Cymothoe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cymothoe  est un genre de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Limenitidinae et de la tribu des Limenitidini[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cymothoe  est un genre de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Limenitidinae et de la tribu des Limenitidini.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre présentent un dimorphisme sexuel très marqué.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre se rencontre en Afrique centrale.
 </t>
@@ -573,20 +589,91 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Cymothoe a été décrit par l'entomologiste allemand Jakob Hübner en 1819[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cymothoe a été décrit par l'entomologiste allemand Jakob Hübner en 1819.
 L'espèce type est Cymothoe althea (Cramer, 1776).
-Synonymie
-Pallene Doubleday, 1848[3]
-Eupithes Westwood, 1850[4]
-Paradiadema Distant, 1880[5]
-Taxinomie
-Liste alphabétique par groupe[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cymothoe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cymothoe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pallene Doubleday, 1848
+Eupithes Westwood, 1850
+Paradiadema Distant, 1880</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cymothoe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cymothoe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Liste alphabétique par groupe :
 Le groupe de l'oemilius
 Cymothoe oemilius (Doumet, 1859)
 Le groupe de lhyarbita
-Cymothoe hyarbita (Hewitson, [1866])
+Cymothoe hyarbita (Hewitson, )
 Cymothoe reinholdi (Plötz, 1880)
 Le groupe du lucasi
 Cymothoe lucasii (Doumet, 1859)
@@ -614,7 +701,7 @@
 Cymothoe fumana (Westwood, 1850)
 Cymothoe haynae Dewitz, 1886
 Groupe non déterminé
-Cymothoe althea (Cramer, [1776])
+Cymothoe althea (Cramer, )
 Cymothoe amenides (Hewitson, 1874)
 Cymothoe capella (Ward, 1871)
 Cymothoe caprina Aurivillius, 1897
@@ -622,9 +709,9 @@
 Cymothoe coranus (Grose-Smith, 1889)
 Cymothoe eris Aurivillius, 1896
 Le groupe du caenis
-Cymothoe alcimeda (Godart, [1824])
+Cymothoe alcimeda (Godart, )
 Cymothoe alticola Libert &amp; Collins, 1997
-Cymothoe caenis (Drury, [1773])
+Cymothoe caenis (Drury, )
 Cymothoe jodutta (Westwood, 1850)
 Cymothoe teita van Someren, 1939
 Groupe non déterminé
@@ -634,7 +721,7 @@
 Cymothoe angulifascia Aurivillius, 1897
 Cymothoe aubergeri Plantrou, 1977
 Cymothoe aurivillii Staudinger, 1899
-Cymothoe beckeri (Herrich-Schäffer, [1853])
+Cymothoe beckeri (Herrich-Schäffer, )
 Cymothoe collarti Overlaet, 1942
 Cymothoe collinsi Rydon, 1980
 Cymothoe cottrelli Rydon, 1980
